--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_Monocyte_Macrophages_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_Monocyte_Macrophages_speed_coherence.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.271744966506958</v>
+        <v>0.7169622182846069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2834615409374237</v>
+        <v>0.7482835650444031</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2459374964237213</v>
+        <v>0.7002531886100769</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2602500021457672</v>
+        <v>1.196395397186279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2512499988079071</v>
+        <v>1.224864840507507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1500000059604645</v>
+        <v>2.327894687652588</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7478745230567335</v>
+        <v>0.6458287041279531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7271880250997268</v>
+        <v>0.7365952680508295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7139077251777053</v>
+        <v>0.6679677939521864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.569210370057408</v>
+        <v>0.5897923406040253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6581090828403831</v>
+        <v>0.7014551233198192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4601109206676483</v>
+        <v>0.7330156037289846</v>
       </c>
     </row>
   </sheetData>
